--- a/src/main/resources/excel/Tester_Account.xlsx
+++ b/src/main/resources/excel/Tester_Account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Transaction ID</t>
   </si>
@@ -107,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -189,6 +189,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>25000.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>25000.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>25000.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/excel/Tester_Account.xlsx
+++ b/src/main/resources/excel/Tester_Account.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Transaction ID</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Newton</t>
+  </si>
+  <si>
+    <t>asddasd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>asda</t>
+  </si>
+  <si>
+    <t>asdas</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,6 +242,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>12.222222222222221</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.225913</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.01848379090909091</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
